--- a/exchange/output/Закачка Световые Технологии база.xlsx
+++ b/exchange/output/Закачка Световые Технологии база.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +423,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>146693</v>
+        <v>3912</v>
       </c>
       <c r="B2">
-        <v>9350</v>
+        <v>8194</v>
       </c>
       <c r="C2">
         <v>36.5</v>
       </c>
       <c r="D2">
-        <v>39.84588824792623</v>
+        <v>39.8565111018433</v>
       </c>
       <c r="E2">
         <v>26</v>
@@ -446,16 +446,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>227900</v>
+        <v>3976</v>
       </c>
       <c r="B3">
-        <v>1082</v>
+        <v>9190</v>
       </c>
       <c r="C3">
         <v>36.5</v>
       </c>
       <c r="D3">
-        <v>39.86930007131733</v>
+        <v>39.84731777951043</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -469,16 +469,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>228754</v>
+        <v>93034</v>
       </c>
       <c r="B4">
-        <v>1082</v>
+        <v>15671</v>
       </c>
       <c r="C4">
         <v>36.5</v>
       </c>
       <c r="D4">
-        <v>39.86930007131733</v>
+        <v>39.84397689097374</v>
       </c>
       <c r="E4">
         <v>26</v>
@@ -492,19 +492,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>258983</v>
+        <v>100786</v>
       </c>
       <c r="B5">
-        <v>23584</v>
+        <v>10231</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="D5">
-        <v>46.34249760068834</v>
+        <v>39.85583427868653</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -515,19 +515,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>432873</v>
+        <v>123652</v>
       </c>
       <c r="B6">
-        <v>3356</v>
+        <v>9043</v>
       </c>
       <c r="C6">
         <v>36.5</v>
       </c>
       <c r="D6">
-        <v>51.19236436327461</v>
+        <v>39.85660822909247</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -538,19 +538,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>529436</v>
+        <v>126629</v>
       </c>
       <c r="B7">
-        <v>85435</v>
+        <v>13843</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D7">
-        <v>34.11778476240968</v>
+        <v>39.84717262531128</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -561,16 +561,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>544417</v>
+        <v>129915</v>
       </c>
       <c r="B8">
-        <v>9017</v>
+        <v>7475</v>
       </c>
       <c r="C8">
         <v>36.5</v>
       </c>
       <c r="D8">
-        <v>39.85818575570226</v>
+        <v>39.8465858935708</v>
       </c>
       <c r="E8">
         <v>26</v>
@@ -584,19 +584,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>622663</v>
+        <v>136454</v>
       </c>
       <c r="B9">
-        <v>64808</v>
+        <v>14558</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D9">
-        <v>34.11924453771138</v>
+        <v>39.847885136078</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -607,19 +607,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>625333</v>
+        <v>139468</v>
       </c>
       <c r="B10">
-        <v>44418</v>
+        <v>12351</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D10">
-        <v>34.11891840350889</v>
+        <v>39.84640865803293</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -630,19 +630,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>630569</v>
+        <v>153789</v>
       </c>
       <c r="B11">
-        <v>49890</v>
+        <v>15671</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D11">
-        <v>34.11859031044769</v>
+        <v>39.84397689097374</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -653,19 +653,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>632437</v>
+        <v>159873</v>
       </c>
       <c r="B12">
-        <v>75224</v>
+        <v>8221</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D12">
-        <v>34.11864799094155</v>
+        <v>39.85679093698877</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -676,19 +676,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>633917</v>
+        <v>159874</v>
       </c>
       <c r="B13">
-        <v>26557</v>
+        <v>12351</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D13">
-        <v>34.11773565848375</v>
+        <v>39.84640865803293</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -699,19 +699,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>636883</v>
+        <v>163186</v>
       </c>
       <c r="B14">
-        <v>22203</v>
+        <v>10231</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D14">
-        <v>34.12072030541713</v>
+        <v>39.85583427868653</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -722,19 +722,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>639637</v>
+        <v>164714</v>
       </c>
       <c r="B15">
-        <v>24698</v>
+        <v>14558</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D15">
-        <v>34.11898081768945</v>
+        <v>39.847885136078</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -745,19 +745,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>661198</v>
+        <v>168776</v>
       </c>
       <c r="B16">
-        <v>66772</v>
+        <v>7474</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D16">
-        <v>34.11926802710541</v>
+        <v>39.84437388195088</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -768,19 +768,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>667098</v>
+        <v>176506</v>
       </c>
       <c r="B17">
-        <v>46541</v>
+        <v>997</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="D17">
-        <v>46.34355965183596</v>
+        <v>39.94629600379087</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -791,19 +791,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>667099</v>
+        <v>176791</v>
       </c>
       <c r="B18">
-        <v>26051</v>
+        <v>5794</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>36.5</v>
       </c>
       <c r="D18">
-        <v>46.34520841388983</v>
+        <v>39.86774262813282</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -814,16 +814,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>667209</v>
+        <v>180577</v>
       </c>
       <c r="B19">
-        <v>12475</v>
+        <v>485</v>
       </c>
       <c r="C19">
         <v>36.5</v>
       </c>
       <c r="D19">
-        <v>39.8449561517011</v>
+        <v>39.94415221767647</v>
       </c>
       <c r="E19">
         <v>26</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>667442</v>
+        <v>180579</v>
       </c>
       <c r="B20">
-        <v>37124</v>
+        <v>450</v>
       </c>
       <c r="C20">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="D20">
-        <v>37.6781271063914</v>
+        <v>39.98250218722659</v>
       </c>
       <c r="E20">
         <v>26</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>667695</v>
+        <v>182199</v>
       </c>
       <c r="B21">
-        <v>10428</v>
+        <v>1063</v>
       </c>
       <c r="C21">
         <v>36.5</v>
       </c>
       <c r="D21">
-        <v>39.85665485715322</v>
+        <v>39.84978000325921</v>
       </c>
       <c r="E21">
         <v>26</v>
@@ -883,19 +883,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>667954</v>
+        <v>182318</v>
       </c>
       <c r="B22">
-        <v>1045</v>
+        <v>6376</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>36.5</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>39.84528596409764</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -906,16 +906,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>668261</v>
+        <v>183385</v>
       </c>
       <c r="B23">
-        <v>12475</v>
+        <v>7243</v>
       </c>
       <c r="C23">
         <v>36.5</v>
       </c>
       <c r="D23">
-        <v>39.8449561517011</v>
+        <v>39.84706401612414</v>
       </c>
       <c r="E23">
         <v>26</v>
@@ -929,16 +929,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>668441</v>
+        <v>184261</v>
       </c>
       <c r="B24">
-        <v>69835</v>
+        <v>7243</v>
       </c>
       <c r="C24">
         <v>36.5</v>
       </c>
       <c r="D24">
-        <v>39.84367653522148</v>
+        <v>39.84706401612414</v>
       </c>
       <c r="E24">
         <v>26</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>668442</v>
+        <v>184742</v>
       </c>
       <c r="B25">
-        <v>51583</v>
+        <v>7313</v>
       </c>
       <c r="C25">
         <v>36.5</v>
       </c>
       <c r="D25">
-        <v>39.84340201146628</v>
+        <v>39.84357503402413</v>
       </c>
       <c r="E25">
         <v>26</v>
@@ -975,19 +975,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>668734</v>
+        <v>185386</v>
       </c>
       <c r="B26">
-        <v>66772</v>
+        <v>7387</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>36.5</v>
       </c>
       <c r="D26">
-        <v>34.11926802710541</v>
+        <v>39.84970420508447</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -998,16 +998,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>668835</v>
+        <v>185909</v>
       </c>
       <c r="B27">
-        <v>45464</v>
+        <v>8422</v>
       </c>
       <c r="C27">
         <v>36.5</v>
       </c>
       <c r="D27">
-        <v>39.84587268840207</v>
+        <v>39.84745613756247</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1021,16 +1021,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>668858</v>
+        <v>186249</v>
       </c>
       <c r="B28">
-        <v>58900</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="D28">
-        <v>37.67652439425646</v>
+        <v>45.366444579043</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -1044,19 +1044,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>668927</v>
+        <v>195233</v>
       </c>
       <c r="B29">
-        <v>4850</v>
+        <v>5951</v>
       </c>
       <c r="C29">
-        <v>24.5</v>
+        <v>36.5</v>
       </c>
       <c r="D29">
-        <v>47.82549327507339</v>
+        <v>39.85588360603247</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1067,19 +1067,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>668995</v>
+        <v>195694</v>
       </c>
       <c r="B30">
-        <v>20067</v>
+        <v>8436</v>
       </c>
       <c r="C30">
         <v>36.5</v>
       </c>
       <c r="D30">
-        <v>51.18637949233082</v>
+        <v>39.85805117176855</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>669201</v>
+        <v>210759</v>
       </c>
       <c r="B31">
-        <v>11124</v>
+        <v>155</v>
       </c>
       <c r="C31">
         <v>36.5</v>
       </c>
       <c r="D31">
-        <v>39.85509092916784</v>
+        <v>40.20115818348064</v>
       </c>
       <c r="E31">
         <v>26</v>
@@ -1113,16 +1113,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>669202</v>
+        <v>210792</v>
       </c>
       <c r="B32">
-        <v>13405</v>
+        <v>140</v>
       </c>
       <c r="C32">
         <v>36.5</v>
       </c>
       <c r="D32">
-        <v>39.84666677631346</v>
+        <v>40.60742407199098</v>
       </c>
       <c r="E32">
         <v>26</v>
@@ -1131,6 +1131,903 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>213776</v>
+      </c>
+      <c r="B33">
+        <v>7475</v>
+      </c>
+      <c r="C33">
+        <v>36.5</v>
+      </c>
+      <c r="D33">
+        <v>39.8465858935708</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>217260</v>
+      </c>
+      <c r="B34">
+        <v>9294</v>
+      </c>
+      <c r="C34">
+        <v>36.5</v>
+      </c>
+      <c r="D34">
+        <v>39.85824399451683</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>219393</v>
+      </c>
+      <c r="B35">
+        <v>7033</v>
+      </c>
+      <c r="C35">
+        <v>36.5</v>
+      </c>
+      <c r="D35">
+        <v>39.85794767530386</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>225641</v>
+      </c>
+      <c r="B36">
+        <v>13198</v>
+      </c>
+      <c r="C36">
+        <v>36.5</v>
+      </c>
+      <c r="D36">
+        <v>39.84461974076245</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>226368</v>
+      </c>
+      <c r="B37">
+        <v>10231</v>
+      </c>
+      <c r="C37">
+        <v>36.5</v>
+      </c>
+      <c r="D37">
+        <v>39.85583427868653</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>227918</v>
+      </c>
+      <c r="B38">
+        <v>22060</v>
+      </c>
+      <c r="C38">
+        <v>36.5</v>
+      </c>
+      <c r="D38">
+        <v>39.84765956839258</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>232796</v>
+      </c>
+      <c r="B39">
+        <v>15467</v>
+      </c>
+      <c r="C39">
+        <v>36.5</v>
+      </c>
+      <c r="D39">
+        <v>39.84554372782301</v>
+      </c>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>233557</v>
+      </c>
+      <c r="B40">
+        <v>17772</v>
+      </c>
+      <c r="C40">
+        <v>36.5</v>
+      </c>
+      <c r="D40">
+        <v>39.8466312575209</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>233558</v>
+      </c>
+      <c r="B41">
+        <v>3888</v>
+      </c>
+      <c r="C41">
+        <v>36.5</v>
+      </c>
+      <c r="D41">
+        <v>39.8609895985224</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>234601</v>
+      </c>
+      <c r="B42">
+        <v>5987</v>
+      </c>
+      <c r="C42">
+        <v>36.5</v>
+      </c>
+      <c r="D42">
+        <v>39.85664496613401</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>234950</v>
+      </c>
+      <c r="B43">
+        <v>10164</v>
+      </c>
+      <c r="C43">
+        <v>37.5</v>
+      </c>
+      <c r="D43">
+        <v>42.08579299488391</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>234960</v>
+      </c>
+      <c r="B44">
+        <v>10164</v>
+      </c>
+      <c r="C44">
+        <v>37.5</v>
+      </c>
+      <c r="D44">
+        <v>42.08579299488391</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>235080</v>
+      </c>
+      <c r="B45">
+        <v>10164</v>
+      </c>
+      <c r="C45">
+        <v>37.5</v>
+      </c>
+      <c r="D45">
+        <v>42.08579299488391</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>241757</v>
+      </c>
+      <c r="B46">
+        <v>9737</v>
+      </c>
+      <c r="C46">
+        <v>37.5</v>
+      </c>
+      <c r="D46">
+        <v>42.08882235692934</v>
+      </c>
+      <c r="E46">
+        <v>26</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>276498</v>
+      </c>
+      <c r="B47">
+        <v>7313</v>
+      </c>
+      <c r="C47">
+        <v>36.5</v>
+      </c>
+      <c r="D47">
+        <v>39.84357503402413</v>
+      </c>
+      <c r="E47">
+        <v>26</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>306288</v>
+      </c>
+      <c r="B48">
+        <v>11424</v>
+      </c>
+      <c r="C48">
+        <v>37.5</v>
+      </c>
+      <c r="D48">
+        <v>42.08683473389356</v>
+      </c>
+      <c r="E48">
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>307759</v>
+      </c>
+      <c r="B49">
+        <v>11424</v>
+      </c>
+      <c r="C49">
+        <v>37.5</v>
+      </c>
+      <c r="D49">
+        <v>42.08683473389356</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>399765</v>
+      </c>
+      <c r="B50">
+        <v>9676</v>
+      </c>
+      <c r="C50">
+        <v>36.5</v>
+      </c>
+      <c r="D50">
+        <v>51.18175337632196</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>513488</v>
+      </c>
+      <c r="B51">
+        <v>21900</v>
+      </c>
+      <c r="C51">
+        <v>36.5</v>
+      </c>
+      <c r="D51">
+        <v>51.18110236220473</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>515423</v>
+      </c>
+      <c r="B52">
+        <v>19643</v>
+      </c>
+      <c r="C52">
+        <v>36.5</v>
+      </c>
+      <c r="D52">
+        <v>51.18681408543522</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>520724</v>
+      </c>
+      <c r="B53">
+        <v>15997</v>
+      </c>
+      <c r="C53">
+        <v>36.5</v>
+      </c>
+      <c r="D53">
+        <v>51.18969098551893</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>544417</v>
+      </c>
+      <c r="B54">
+        <v>9017</v>
+      </c>
+      <c r="C54">
+        <v>36.5</v>
+      </c>
+      <c r="D54">
+        <v>39.85818575570226</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>623540</v>
+      </c>
+      <c r="B55">
+        <v>11134</v>
+      </c>
+      <c r="C55">
+        <v>36.5</v>
+      </c>
+      <c r="D55">
+        <v>39.84263283777152</v>
+      </c>
+      <c r="E55">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>671090</v>
+      </c>
+      <c r="B56">
+        <v>13835</v>
+      </c>
+      <c r="C56">
+        <v>36.5</v>
+      </c>
+      <c r="D56">
+        <v>39.84835912093367</v>
+      </c>
+      <c r="E56">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>671173</v>
+      </c>
+      <c r="B57">
+        <v>20168</v>
+      </c>
+      <c r="C57">
+        <v>36.5</v>
+      </c>
+      <c r="D57">
+        <v>39.84889135982159</v>
+      </c>
+      <c r="E57">
+        <v>26</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>671174</v>
+      </c>
+      <c r="B58">
+        <v>21776</v>
+      </c>
+      <c r="C58">
+        <v>35.5</v>
+      </c>
+      <c r="D58">
+        <v>37.6809117782752</v>
+      </c>
+      <c r="E58">
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>671189</v>
+      </c>
+      <c r="B59">
+        <v>13466</v>
+      </c>
+      <c r="C59">
+        <v>36.5</v>
+      </c>
+      <c r="D59">
+        <v>39.84476506009302</v>
+      </c>
+      <c r="E59">
+        <v>26</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>673249</v>
+      </c>
+      <c r="B60">
+        <v>28260</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>34.12014487323592</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>673309</v>
+      </c>
+      <c r="B61">
+        <v>13534</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>46.3432655606296</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>673324</v>
+      </c>
+      <c r="B62">
+        <v>45136</v>
+      </c>
+      <c r="C62">
+        <v>36.5</v>
+      </c>
+      <c r="D62">
+        <v>39.84332913720772</v>
+      </c>
+      <c r="E62">
+        <v>26</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>673331</v>
+      </c>
+      <c r="B63">
+        <v>22678</v>
+      </c>
+      <c r="C63">
+        <v>36.5</v>
+      </c>
+      <c r="D63">
+        <v>39.84901944581205</v>
+      </c>
+      <c r="E63">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>673431</v>
+      </c>
+      <c r="B64">
+        <v>11645</v>
+      </c>
+      <c r="C64">
+        <v>36.5</v>
+      </c>
+      <c r="D64">
+        <v>39.84567074803438</v>
+      </c>
+      <c r="E64">
+        <v>26</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>673619</v>
+      </c>
+      <c r="B65">
+        <v>5837</v>
+      </c>
+      <c r="C65">
+        <v>36.5</v>
+      </c>
+      <c r="D65">
+        <v>51.19384864427357</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>673740</v>
+      </c>
+      <c r="B66">
+        <v>11381</v>
+      </c>
+      <c r="C66">
+        <v>36.5</v>
+      </c>
+      <c r="D66">
+        <v>39.85172147547927</v>
+      </c>
+      <c r="E66">
+        <v>26</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>673830</v>
+      </c>
+      <c r="B67">
+        <v>13545</v>
+      </c>
+      <c r="C67">
+        <v>36.5</v>
+      </c>
+      <c r="D67">
+        <v>39.84290344933428</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>674119</v>
+      </c>
+      <c r="B68">
+        <v>6608</v>
+      </c>
+      <c r="C68">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>44.00726392251817</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>674351</v>
+      </c>
+      <c r="B69">
+        <v>50576</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>34.11848447066268</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>674487</v>
+      </c>
+      <c r="B70">
+        <v>15104</v>
+      </c>
+      <c r="C70">
+        <v>36.5</v>
+      </c>
+      <c r="D70">
+        <v>39.84927599092485</v>
+      </c>
+      <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>674639</v>
+      </c>
+      <c r="B71">
+        <v>11877</v>
+      </c>
+      <c r="C71">
+        <v>36.5</v>
+      </c>
+      <c r="D71">
+        <v>39.8453970484891</v>
+      </c>
+      <c r="E71">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>0</v>
       </c>
     </row>
